--- a/biology/Médecine/Helse_Midt-Norge/Helse_Midt-Norge.xlsx
+++ b/biology/Médecine/Helse_Midt-Norge/Helse_Midt-Norge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helse Midt-Norge est, en Norvège, l'autorité de santé publique régionale qui dirige (et à qui appartient) les hôpitaux des comtés de Møre og Romsdal et Trøndelag. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette organisation a été mise en place à l'automne 2001[1] et l'autorité régionale compte six subdivisions : Helse Nord-Trøndelag, Helse Møre og Romsdal, l'Hôpital St. Olav, Traitement des toxicomanies, Ambulances et Pharmacies hospitalières[2]. Au total, l'autorité de santé publique régionale dirige huit hôpitaux, quatre pharmacies et quatre instituts de soins des toxicomanes, sans compter de plus petites unités. L'autorité regroupe 14 000 emplois et gère un budget de plus de sept milliards de couronnes norvégiennes (un peu moins d'un milliard d'euros).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette organisation a été mise en place à l'automne 2001 et l'autorité régionale compte six subdivisions : Helse Nord-Trøndelag, Helse Møre og Romsdal, l'Hôpital St. Olav, Traitement des toxicomanies, Ambulances et Pharmacies hospitalières. Au total, l'autorité de santé publique régionale dirige huit hôpitaux, quatre pharmacies et quatre instituts de soins des toxicomanes, sans compter de plus petites unités. L'autorité regroupe 14 000 emplois et gère un budget de plus de sept milliards de couronnes norvégiennes (un peu moins d'un milliard d'euros).
 </t>
         </is>
       </c>
